--- a/assets/BEAN-2.xlsx
+++ b/assets/BEAN-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="174">
   <si>
     <t xml:space="preserve">Types</t>
   </si>
@@ -430,16 +430,131 @@
   </si>
   <si>
     <t xml:space="preserve">Load address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmem mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dmem we</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs1sel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs2sel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regsel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCsel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImmSel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALUControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -492,6 +607,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -597,7 +738,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -680,6 +821,38 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -765,7 +938,7 @@
       <selection pane="topLeft" activeCell="D72" activeCellId="0" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="2" style="0" width="4.15"/>
@@ -4893,15 +5066,15 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="70.07"/>
   </cols>
   <sheetData>
@@ -5501,14 +5674,1449 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="4" style="0" width="9.07"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="27" t="n">
+        <v>1101</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>1010</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>1100</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>1001</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="28" t="n">
+        <v>101</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4"/>
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="M29" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="L31" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="M31" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="K33" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M33" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="4"/>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="4"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="J41" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="J42" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="J43" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="J44" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/assets/BEAN-2.xlsx
+++ b/assets/BEAN-2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="175">
   <si>
     <t xml:space="preserve">Types</t>
   </si>
@@ -438,34 +438,34 @@
     <t xml:space="preserve">Size</t>
   </si>
   <si>
-    <t xml:space="preserve">dmem mode</t>
+    <t xml:space="preserve">dmem_SEL</t>
   </si>
   <si>
     <t xml:space="preserve">XXX</t>
   </si>
   <si>
-    <t xml:space="preserve">dmem we</t>
+    <t xml:space="preserve">dmem_WE</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">regWE</t>
+    <t xml:space="preserve">reg_WE</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">rs1sel</t>
+    <t xml:space="preserve">rs1_SEL</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
   </si>
   <si>
-    <t xml:space="preserve">rs2sel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regsel</t>
+    <t xml:space="preserve">rs2_SEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reg_SEL</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -480,43 +480,46 @@
     <t xml:space="preserve">XX</t>
   </si>
   <si>
-    <t xml:space="preserve">PCsel</t>
+    <t xml:space="preserve">pc_SEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imm_SEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALU_SEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001</t>
   </si>
   <si>
     <t xml:space="preserve">00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTRL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ImmSel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALUControl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001</t>
   </si>
   <si>
     <t xml:space="preserve">1010</t>
@@ -554,7 +557,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -614,15 +617,6 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -738,7 +732,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -835,10 +829,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -851,7 +841,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5067,7 +5057,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5674,53 +5664,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:M44"/>
+  <dimension ref="B2:N62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
+      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="4" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.03"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="21" t="s">
         <v>136</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="K2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="L2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="M2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="N2" s="23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5728,37 +5719,37 @@
       <c r="B3" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="25" t="n">
+      <c r="C3" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="I3" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="J3" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="K3" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="L3" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="M3" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="N3" s="25" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5766,37 +5757,37 @@
       <c r="B4" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="26" t="s">
+      <c r="C4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="J4" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="K4" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="L4" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="M4" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="N4" s="25" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5804,37 +5795,37 @@
       <c r="B5" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="26" t="s">
+      <c r="C5" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="I5" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="J5" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="K5" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="L5" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="M5" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="N5" s="25" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5842,37 +5833,37 @@
       <c r="B6" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="I6" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="J6" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="K6" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="L6" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="M6" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="N6" s="25" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5880,37 +5871,37 @@
       <c r="B7" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="H7" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="I7" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="J7" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="K7" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="L7" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="M7" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="N7" s="25" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5918,37 +5909,37 @@
       <c r="B8" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C8" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="G8" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="J8" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="K8" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="L8" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="M8" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="N8" s="25" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5956,37 +5947,37 @@
       <c r="B9" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="25" t="n">
+      <c r="C9" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="H9" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="I9" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="J9" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="K9" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="L9" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="M9" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="N9" s="25" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5994,37 +5985,37 @@
       <c r="B10" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="25" t="n">
+      <c r="C10" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="G10" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="I10" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="J10" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="K10" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="L10" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="M10" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="N10" s="25" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6032,75 +6023,85 @@
       <c r="B11" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="25" t="n">
+      <c r="C11" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="27" t="n">
+      <c r="H11" s="26" t="n">
         <v>1101</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="I11" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="J11" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="J11" s="4" t="n">
+      <c r="K11" s="4" t="n">
         <v>1010</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="L11" s="4" t="n">
         <v>1100</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="M11" s="4" t="n">
         <v>1001</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="N11" s="4" t="n">
         <v>1011</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4"/>
       <c r="C13" s="20"/>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="H13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="I13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="J13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="K13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="L13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="M13" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="N13" s="23" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6108,37 +6109,37 @@
       <c r="B14" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="25" t="n">
+      <c r="C14" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="28" t="n">
+      <c r="F14" s="27" t="n">
         <v>101</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="G14" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="H14" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="I14" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="J14" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="K14" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="L14" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="M14" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="N14" s="27" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6146,37 +6147,37 @@
       <c r="B15" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="26" t="s">
+      <c r="C15" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="28" t="s">
+      <c r="F15" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="K15" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="L15" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="M15" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="M15" s="28" t="s">
+      <c r="N15" s="27" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6184,37 +6185,37 @@
       <c r="B16" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="26" t="s">
+      <c r="C16" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="28" t="s">
+      <c r="F16" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="K16" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="L16" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="M16" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="N16" s="27" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6222,37 +6223,37 @@
       <c r="B17" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="28" t="s">
+      <c r="C17" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="F17" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="G17" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="H17" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="I17" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="J17" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="K17" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="L17" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="M17" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="N17" s="27" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6260,37 +6261,37 @@
       <c r="B18" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="28" t="s">
+      <c r="C18" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="F18" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="G18" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="H18" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="I18" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="J18" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="K18" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="L18" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="M18" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="N18" s="27" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6298,37 +6299,37 @@
       <c r="B19" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="25" t="n">
+      <c r="C19" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="I19" s="28" t="s">
+      <c r="E19" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="K19" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="K19" s="28" t="s">
+      <c r="L19" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="L19" s="26" t="s">
+      <c r="M19" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="N19" s="27" t="s">
         <v>149</v>
       </c>
     </row>
@@ -6336,37 +6337,37 @@
       <c r="B20" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="25" t="n">
+      <c r="C20" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="F20" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="G20" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="H20" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="I20" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="J20" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="28" t="s">
+      <c r="K20" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="K20" s="28" t="s">
+      <c r="L20" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="L20" s="26" t="s">
+      <c r="M20" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="N20" s="25" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6374,37 +6375,37 @@
       <c r="B21" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="25" t="n">
+      <c r="C21" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="E21" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="F21" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="G21" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="H21" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="I21" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="J21" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="K21" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="K21" s="28" t="s">
+      <c r="L21" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="M21" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="M21" s="28" t="s">
+      <c r="N21" s="27" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6412,75 +6413,69 @@
       <c r="B22" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C22" s="25" t="n">
+      <c r="C22" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="F22" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="G22" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="H22" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="I22" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="J22" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="K22" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="K22" s="28" t="s">
+      <c r="L22" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="M22" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="M22" s="28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4"/>
-      <c r="C23" s="20"/>
+      <c r="N22" s="27" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="24" t="s">
+      <c r="E24" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="F24" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="H24" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="I24" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="J24" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="K24" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="24" t="s">
+      <c r="L24" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="M24" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="M24" s="24" t="s">
+      <c r="N24" s="23" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6488,37 +6483,37 @@
       <c r="B25" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="25" t="n">
+      <c r="C25" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="E25" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="F25" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="G25" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="H25" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="I25" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="J25" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="J25" s="28" t="s">
+      <c r="K25" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="K25" s="28" t="s">
+      <c r="L25" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="28" t="s">
+      <c r="M25" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="M25" s="28" t="s">
+      <c r="N25" s="27" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6526,37 +6521,37 @@
       <c r="B26" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="28" t="s">
+      <c r="C26" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="F26" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="G26" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="H26" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="I26" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="J26" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="J26" s="28" t="s">
+      <c r="K26" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="K26" s="28" t="s">
+      <c r="L26" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="L26" s="28" t="s">
+      <c r="M26" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="M26" s="28" t="s">
+      <c r="N26" s="27" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6564,37 +6559,37 @@
       <c r="B27" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="28" t="s">
+      <c r="C27" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="F27" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="G27" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="H27" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="I27" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="J27" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="K27" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="K27" s="28" t="s">
+      <c r="L27" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="L27" s="28" t="s">
+      <c r="M27" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="M27" s="28" t="s">
+      <c r="N27" s="27" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6602,37 +6597,37 @@
       <c r="B28" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="28" t="s">
+      <c r="C28" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="F28" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="G28" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="H28" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="I28" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="J28" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="K28" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="L28" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="M28" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="N28" s="27" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6640,37 +6635,37 @@
       <c r="B29" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="28" t="s">
+      <c r="C29" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="F29" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="G29" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="H29" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="I29" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="J29" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="K29" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="K29" s="28" t="s">
+      <c r="L29" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="L29" s="28" t="s">
+      <c r="M29" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="M29" s="28" t="s">
+      <c r="N29" s="27" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6678,37 +6673,37 @@
       <c r="B30" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="25" t="n">
+      <c r="C30" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="F30" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="G30" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="H30" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="I30" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="J30" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="J30" s="28" t="s">
+      <c r="K30" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="K30" s="28" t="s">
+      <c r="L30" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="L30" s="28" t="s">
+      <c r="M30" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="M30" s="28" t="s">
+      <c r="N30" s="27" t="s">
         <v>149</v>
       </c>
     </row>
@@ -6716,37 +6711,37 @@
       <c r="B31" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="25" t="n">
+      <c r="C31" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="E31" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="F31" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="G31" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="H31" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="I31" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="I31" s="28" t="s">
+      <c r="J31" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="J31" s="28" t="s">
+      <c r="K31" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="K31" s="28" t="s">
+      <c r="L31" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="L31" s="28" t="s">
+      <c r="M31" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="M31" s="28" t="s">
+      <c r="N31" s="25" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6754,37 +6749,37 @@
       <c r="B32" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="25" t="n">
+      <c r="C32" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="E32" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="F32" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="G32" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="H32" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="I32" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="I32" s="28" t="s">
+      <c r="J32" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="J32" s="28" t="s">
+      <c r="K32" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="K32" s="28" t="s">
+      <c r="L32" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="L32" s="28" t="s">
+      <c r="M32" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="M32" s="28" t="s">
+      <c r="N32" s="27" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6792,66 +6787,69 @@
       <c r="B33" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="25" t="n">
+      <c r="C33" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="D33" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="H33" s="28" t="s">
+      <c r="H33" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="I33" s="28" t="s">
+      <c r="I33" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="J33" s="28" t="s">
+      <c r="J33" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="K33" s="28" t="s">
+      <c r="K33" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="L33" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="L33" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="M33" s="28" t="s">
-        <v>170</v>
+      <c r="M33" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="4"/>
-      <c r="C34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="4"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="24" t="s">
+      <c r="E35" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="F35" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="G35" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="H35" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="I35" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="J35" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="K35" s="23" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6859,28 +6857,28 @@
       <c r="B36" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="25" t="n">
+      <c r="C36" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="E36" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="F36" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="G36" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G36" s="28" t="s">
+      <c r="H36" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="H36" s="28" t="s">
+      <c r="I36" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I36" s="28" t="s">
+      <c r="J36" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="J36" s="28" t="s">
+      <c r="K36" s="27" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6888,28 +6886,28 @@
       <c r="B37" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="28" t="s">
+      <c r="C37" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="F37" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="G37" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="H37" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="I37" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="I37" s="28" t="s">
+      <c r="J37" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="J37" s="28" t="s">
+      <c r="K37" s="27" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6917,28 +6915,28 @@
       <c r="B38" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="28" t="s">
+      <c r="C38" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="F38" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="G38" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="G38" s="28" t="s">
+      <c r="H38" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="H38" s="28" t="s">
+      <c r="I38" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="I38" s="28" t="s">
+      <c r="J38" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="J38" s="28" t="s">
+      <c r="K38" s="27" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6946,28 +6944,28 @@
       <c r="B39" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="28" t="n">
+      <c r="C39" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6975,28 +6973,28 @@
       <c r="B40" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C40" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="28" t="n">
+      <c r="C40" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7004,57 +7002,60 @@
       <c r="B41" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="25" t="n">
+      <c r="C41" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="20"/>
+      <c r="E41" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="F41" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="G41" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="H41" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="H41" s="28" t="s">
+      <c r="I41" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="I41" s="28" t="s">
+      <c r="J41" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="J41" s="28" t="s">
+      <c r="K41" s="27" t="s">
         <v>149</v>
       </c>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="25" t="n">
+      <c r="C42" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="E42" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="F42" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="G42" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="H42" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="H42" s="28" t="s">
+      <c r="I42" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="I42" s="28" t="s">
+      <c r="J42" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="J42" s="28" t="s">
+      <c r="K42" s="25" t="s">
         <v>153</v>
       </c>
     </row>
@@ -7062,28 +7063,28 @@
       <c r="B43" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="25" t="n">
+      <c r="C43" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="E43" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="F43" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="G43" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="H43" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="H43" s="28" t="s">
+      <c r="I43" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I43" s="28" t="s">
+      <c r="J43" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="J43" s="28" t="s">
+      <c r="K43" s="27" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7091,30 +7092,135 @@
       <c r="B44" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="25" t="n">
+      <c r="C44" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="H44" s="28" t="s">
+      <c r="G44" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="H44" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="I44" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="J44" s="28" t="s">
+      <c r="I44" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="J44" s="27" t="s">
         <v>169</v>
       </c>
+      <c r="K44" s="27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="20"/>
+      <c r="C45" s="24"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="20"/>
+      <c r="C46" s="24"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="20"/>
+      <c r="C47" s="24"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="20"/>
+      <c r="C48" s="24"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="20"/>
+      <c r="C49" s="24"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="20"/>
+      <c r="C50" s="24"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="20"/>
+      <c r="C51" s="24"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="4"/>
+      <c r="C52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="4"/>
+      <c r="C53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="20"/>
+      <c r="C54" s="24"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="20"/>
+      <c r="C55" s="24"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="20"/>
+      <c r="C56" s="24"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="20"/>
+      <c r="C57" s="24"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="20"/>
+      <c r="C58" s="24"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="20"/>
+      <c r="C59" s="24"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="20"/>
+      <c r="C60" s="24"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="20"/>
+      <c r="C61" s="24"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="20"/>
+      <c r="C62" s="24"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
